--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B2B2D17-62AE-4AB3-92AE-9D51C968EBCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA35CF38-9353-4A97-8076-1EEB2688FBF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$92</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Inventory Report List</t>
   </si>
   <si>
@@ -265,6 +262,12 @@
   </si>
   <si>
     <t>Change Theme</t>
+  </si>
+  <si>
+    <t>Waiting for wms@vfreight.com SMTP</t>
+  </si>
+  <si>
+    <t>Location List</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -404,16 +407,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,1020 +755,900 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="5" t="s">
+      <c r="C34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="5" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="5" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="5" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="5" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="5" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="5" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="5" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="5" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="5" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="5" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="5" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="5" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="5" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="5" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="5" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="5" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="5" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="5" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="5" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="5" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="5" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="5" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="5" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="5" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="C67" s="6"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="5" t="s">
+      <c r="C69" s="6"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C70" s="6"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="C80" s="6"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="5" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="C84" s="6"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="11"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="3"/>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:D90" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <autoFilter ref="A2:D92" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="27">
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A16"/>
@@ -1770,26 +1656,6 @@
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CA35CF38-9353-4A97-8076-1EEB2688FBF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{57F94612-0835-4905-B516-4FE579BF15D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>Deliverables</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Location List</t>
+  </si>
+  <si>
+    <t>Deploy to wms.vfeight.com</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,10 +419,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,15 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="12" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="12"/>
     <col min="4" max="4" width="85.85546875" style="14" customWidth="1"/>
@@ -755,24 +761,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -787,7 +793,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
@@ -797,7 +803,7 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -805,7 +811,7 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -813,7 +819,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -821,7 +827,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
@@ -831,7 +837,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
@@ -839,7 +845,7 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -859,7 +865,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>68</v>
       </c>
@@ -869,7 +875,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
@@ -889,7 +895,7 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -897,7 +903,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -917,7 +923,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
         <v>72</v>
       </c>
@@ -927,7 +933,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
@@ -935,7 +941,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
@@ -943,7 +949,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -963,7 +969,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
@@ -973,7 +979,7 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
@@ -981,7 +987,7 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
@@ -989,7 +995,7 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1003,7 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1023,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1033,7 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1041,7 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1049,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1069,7 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1079,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1087,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1095,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1103,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1107,7 +1113,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +1121,7 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
@@ -1123,7 +1129,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1137,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1145,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1149,7 +1155,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1163,7 @@
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
@@ -1165,7 +1171,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
@@ -1173,7 +1179,7 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1187,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1195,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1199,7 +1205,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1213,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
@@ -1223,7 +1229,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
@@ -1231,7 +1237,7 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="5" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1245,7 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1253,7 @@
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1257,7 +1263,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="5" t="s">
         <v>20</v>
       </c>
@@ -1265,7 +1271,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1279,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
@@ -1281,7 +1287,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
@@ -1299,7 +1305,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1309,7 +1315,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1323,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="5" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1331,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1335,7 +1341,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1349,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="5" t="s">
         <v>21</v>
       </c>
@@ -1361,7 +1367,7 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1371,7 +1377,7 @@
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1385,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="5" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +1403,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="5" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1421,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="5" t="s">
         <v>47</v>
       </c>
@@ -1433,7 +1439,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="5" t="s">
         <v>47</v>
       </c>
@@ -1451,7 +1457,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="5" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1475,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="5" t="s">
         <v>47</v>
       </c>
@@ -1477,7 +1483,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="5" t="s">
         <v>49</v>
       </c>
@@ -1495,7 +1501,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="5" t="s">
         <v>47</v>
       </c>
@@ -1513,7 +1519,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="5" t="s">
         <v>49</v>
       </c>
@@ -1531,7 +1537,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
@@ -1549,7 +1555,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="5" t="s">
         <v>47</v>
       </c>
@@ -1626,9 +1632,34 @@
       <c r="C98" s="6"/>
       <c r="D98" s="3"/>
     </row>
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:D92" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="27">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A90"/>
@@ -1639,23 +1670,6 @@
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{57F94612-0835-4905-B516-4FE579BF15D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9E9C2AE-6157-42CE-A16F-C0DB12A4F248}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$98</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>Send Password</t>
   </si>
   <si>
     <t>Send Password via Email</t>
@@ -416,16 +413,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,27 +758,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -829,17 +826,17 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3"/>
@@ -853,11 +850,11 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>59</v>
@@ -867,7 +864,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>59</v>
@@ -877,7 +874,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>59</v>
@@ -887,7 +884,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>59</v>
@@ -903,7 +900,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -911,11 +908,11 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>59</v>
@@ -925,7 +922,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>59</v>
@@ -949,7 +946,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -957,11 +954,11 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>59</v>
@@ -971,7 +968,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>59</v>
@@ -1003,7 +1000,7 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1011,11 +1008,11 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>59</v>
@@ -1049,7 +1046,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1057,11 +1054,11 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>59</v>
@@ -1095,7 +1092,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1103,25 +1100,29 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1130,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1138,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1146,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1155,7 +1156,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1163,7 +1164,7 @@
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
@@ -1171,7 +1172,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1180,7 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1188,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1196,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1205,7 +1206,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1214,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1222,7 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1230,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1238,7 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="5" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1246,7 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1254,7 @@
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1263,7 +1264,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="5" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1272,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1280,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
@@ -1287,7 +1288,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1306,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1315,7 +1316,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1324,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="5" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1332,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1341,7 +1342,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1350,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="5" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1368,7 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1377,7 +1378,7 @@
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1386,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="5" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1394,7 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1403,7 +1404,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="5" t="s">
         <v>47</v>
       </c>
@@ -1411,7 +1412,7 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -1421,7 +1422,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="5" t="s">
         <v>47</v>
       </c>
@@ -1429,7 +1430,7 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -1439,7 +1440,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="5" t="s">
         <v>47</v>
       </c>
@@ -1447,7 +1448,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -1457,7 +1458,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="5" t="s">
         <v>47</v>
       </c>
@@ -1465,7 +1466,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -1483,7 +1484,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="5" t="s">
         <v>49</v>
       </c>
@@ -1491,7 +1492,7 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1501,7 +1502,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="5" t="s">
         <v>47</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -1519,7 +1520,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="5" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1528,7 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1537,7 +1538,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
@@ -1545,7 +1546,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -1555,7 +1556,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
@@ -1563,7 +1564,7 @@
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -1573,7 +1574,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="5" t="s">
         <v>47</v>
       </c>
@@ -1607,49 +1608,46 @@
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="3"/>
+      <c r="A96" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>77</v>
+      <c r="A97" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:D92" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="27">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A84"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A65:A67"/>
@@ -1660,16 +1658,13 @@
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9E9C2AE-6157-42CE-A16F-C0DB12A4F248}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43A14C33-C692-4EDE-99D7-C3EB3894BD20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -261,13 +261,13 @@
     <t>Change Theme</t>
   </si>
   <si>
-    <t>Waiting for wms@vfreight.com SMTP</t>
-  </si>
-  <si>
     <t>Location List</t>
   </si>
   <si>
     <t>Deploy to wms.vfeight.com</t>
+  </si>
+  <si>
+    <t>cant connect to wms@vfreight.com SMTP</t>
   </si>
 </sst>
 </file>
@@ -291,12 +291,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -363,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,6 +417,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,27 +767,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -790,7 +799,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
@@ -800,57 +809,67 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -862,7 +881,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
@@ -872,7 +891,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
@@ -882,7 +901,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
@@ -892,23 +911,27 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -920,7 +943,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
@@ -930,31 +953,37 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -966,7 +995,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
@@ -976,43 +1005,51 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>59</v>
@@ -1020,7 +1057,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1067,7 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1075,7 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1083,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1091,7 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1066,7 +1103,7 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1113,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1121,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1129,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1137,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1112,7 +1149,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1159,7 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1167,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1175,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1183,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1156,7 +1193,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +1201,7 @@
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1209,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
@@ -1180,7 +1217,7 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1225,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
@@ -1196,7 +1233,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1206,7 +1243,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1251,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1259,7 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1267,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1275,7 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="5" t="s">
         <v>30</v>
       </c>
@@ -1246,7 +1283,7 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1291,7 @@
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1264,7 +1301,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="5" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1309,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1317,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1325,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1343,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1316,7 +1353,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1361,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="5" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1369,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1342,7 +1379,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1387,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="5" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1405,7 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1378,7 +1415,7 @@
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1423,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="5" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1431,7 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1404,7 +1441,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="5" t="s">
         <v>47</v>
       </c>
@@ -1412,7 +1449,7 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -1422,7 +1459,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="5" t="s">
         <v>47</v>
       </c>
@@ -1430,7 +1467,7 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -1440,7 +1477,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="5" t="s">
         <v>47</v>
       </c>
@@ -1448,7 +1485,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -1458,7 +1495,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="5" t="s">
         <v>47</v>
       </c>
@@ -1466,7 +1503,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -1476,7 +1513,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="5" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1521,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="5" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1529,7 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1502,7 +1539,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="5" t="s">
         <v>47</v>
       </c>
@@ -1510,7 +1547,7 @@
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -1520,7 +1557,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="5" t="s">
         <v>49</v>
       </c>
@@ -1528,7 +1565,7 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1538,7 +1575,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
@@ -1546,7 +1583,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -1556,7 +1593,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
@@ -1564,7 +1601,7 @@
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -1574,7 +1611,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="5" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1628,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>62</v>
       </c>
@@ -1599,7 +1636,7 @@
       <c r="C94" s="6"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>63</v>
       </c>
@@ -1627,9 +1664,9 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="16"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43A14C33-C692-4EDE-99D7-C3EB3894BD20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{24EEA4A8-015E-49C2-B0CD-042E0C97166E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -300,7 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,23 +419,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,27 +767,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -799,7 +799,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
@@ -809,243 +809,243 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1057,7 +1057,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1067,31 +1067,37 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1103,7 +1109,7 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1119,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1127,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1135,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1143,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1149,7 +1155,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1165,7 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1173,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1181,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1189,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1193,7 +1199,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1207,7 @@
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
@@ -1209,7 +1215,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1223,7 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
@@ -1225,7 +1231,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
@@ -1233,7 +1239,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1243,7 +1249,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1257,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1265,7 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1273,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
@@ -1275,7 +1281,7 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="5" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1289,7 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1297,7 @@
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1301,7 +1307,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="5" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1315,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1323,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1331,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
@@ -1343,7 +1349,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1353,7 +1359,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1367,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="5" t="s">
         <v>21</v>
       </c>
@@ -1369,7 +1375,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1379,7 +1385,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1393,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="5" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1411,7 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1415,7 +1421,7 @@
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
@@ -1423,7 +1429,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="5" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1437,7 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1441,7 +1447,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="5" t="s">
         <v>47</v>
       </c>
@@ -1449,7 +1455,7 @@
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -1459,7 +1465,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="5" t="s">
         <v>47</v>
       </c>
@@ -1467,7 +1473,7 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -1477,7 +1483,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="5" t="s">
         <v>47</v>
       </c>
@@ -1485,7 +1491,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -1495,7 +1501,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="5" t="s">
         <v>47</v>
       </c>
@@ -1503,7 +1509,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -1513,7 +1519,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="5" t="s">
         <v>47</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="5" t="s">
         <v>49</v>
       </c>
@@ -1529,7 +1535,7 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1539,7 +1545,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="5" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1553,7 @@
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -1557,7 +1563,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="5" t="s">
         <v>49</v>
       </c>
@@ -1565,7 +1571,7 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -1575,7 +1581,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
@@ -1583,7 +1589,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -1593,7 +1599,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
@@ -1601,7 +1607,7 @@
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -1611,7 +1617,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="5" t="s">
         <v>47</v>
       </c>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{24EEA4A8-015E-49C2-B0CD-042E0C97166E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E9859444-D5DA-4B23-998D-B259DE7E2779}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1123,9 @@
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,7 +1133,9 @@
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1143,9 @@
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E9859444-D5DA-4B23-998D-B259DE7E2779}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B17FF52-3D3D-42A1-A188-BD0046186CBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -751,10 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +787,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
@@ -798,7 +799,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>58</v>
@@ -808,7 +809,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -818,7 +819,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -828,7 +829,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -848,7 +849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
@@ -858,7 +859,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -868,7 +869,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -880,7 +881,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>67</v>
@@ -890,7 +891,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>68</v>
@@ -900,7 +901,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>69</v>
@@ -910,7 +911,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -920,7 +921,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -930,7 +931,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
@@ -942,7 +943,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
         <v>71</v>
@@ -952,7 +953,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -962,7 +963,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -972,7 +973,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
@@ -982,7 +983,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>10</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -1014,7 +1015,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -1024,7 +1025,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
@@ -1034,7 +1035,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1044,7 +1045,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
@@ -1076,7 +1077,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
@@ -1096,7 +1097,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1109,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
@@ -1118,7 +1119,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
@@ -1128,7 +1129,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1138,7 +1139,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
@@ -1656,7 +1657,7 @@
       <c r="C95" s="6"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>72</v>
       </c>
@@ -1666,7 +1667,7 @@
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>76</v>
       </c>
@@ -1685,7 +1686,11 @@
       <c r="D98" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B17FF52-3D3D-42A1-A188-BD0046186CBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17247021-0BC9-4A04-B86A-6DE3B31B7AE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -751,11 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +786,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
@@ -799,7 +798,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>58</v>
@@ -809,7 +808,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -819,7 +818,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -829,7 +828,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -849,7 +848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
@@ -859,7 +858,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -869,7 +868,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -881,7 +880,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>67</v>
@@ -891,7 +890,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>68</v>
@@ -901,7 +900,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="5" t="s">
         <v>69</v>
@@ -911,7 +910,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -921,7 +920,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -931,7 +930,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
@@ -943,7 +942,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
         <v>71</v>
@@ -953,7 +952,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -963,7 +962,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -973,7 +972,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
@@ -983,7 +982,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>10</v>
       </c>
@@ -995,7 +994,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -1005,7 +1004,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -1015,7 +1014,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -1025,7 +1024,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
@@ -1035,7 +1034,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1045,7 +1044,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1056,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -1067,7 +1066,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
@@ -1077,7 +1076,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
@@ -1087,7 +1086,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
@@ -1097,7 +1096,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1108,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
@@ -1119,7 +1118,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
@@ -1129,7 +1128,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
@@ -1139,7 +1138,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
@@ -1149,7 +1148,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1160,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
@@ -1195,14 +1194,16 @@
       <c r="C42" s="6"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,7 +1219,9 @@
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,7 +1660,7 @@
       <c r="C95" s="6"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>72</v>
       </c>
@@ -1667,7 +1670,7 @@
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>76</v>
       </c>
@@ -1686,11 +1689,7 @@
       <c r="D98" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="27">
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17247021-0BC9-4A04-B86A-6DE3B31B7AE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B374CFA5-2519-4DFE-BB6A-5B5F28682A32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>Deliverables</t>
   </si>
@@ -419,23 +419,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,24 +767,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -799,7 +799,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
@@ -809,61 +809,61 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="3"/>
@@ -875,57 +875,57 @@
       <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="3"/>
@@ -937,47 +937,47 @@
       <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="3"/>
@@ -989,57 +989,57 @@
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="3"/>
@@ -1057,7 +1057,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1161,7 +1161,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
@@ -1171,15 +1171,17 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1189,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1197,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1207,7 +1209,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1217,7 @@
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1227,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
         <v>21</v>
       </c>
@@ -1233,7 +1235,7 @@
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
@@ -1241,7 +1243,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1251,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1259,7 +1261,7 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
       </c>
@@ -1267,7 +1269,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1277,7 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
@@ -1283,7 +1285,7 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="5" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1293,7 @@
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="5" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1301,7 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1309,7 @@
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1317,7 +1319,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
         <v>20</v>
       </c>
@@ -1325,7 +1327,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1335,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1343,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
         <v>32</v>
       </c>
@@ -1359,7 +1361,7 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1369,7 +1371,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1379,7 @@
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="5" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1387,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -1395,7 +1397,7 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1405,7 @@
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="5" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1423,7 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -1431,7 +1433,7 @@
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1441,7 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="5" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1459,7 @@
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="5" t="s">
         <v>47</v>
       </c>
@@ -1475,7 +1477,7 @@
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="5" t="s">
         <v>47</v>
       </c>
@@ -1493,7 +1495,7 @@
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="5" t="s">
         <v>47</v>
       </c>
@@ -1511,7 +1513,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="5" t="s">
         <v>47</v>
       </c>
@@ -1529,7 +1531,7 @@
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="5" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1539,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="5" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1557,7 @@
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="5" t="s">
         <v>47</v>
       </c>
@@ -1573,7 +1575,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="5" t="s">
         <v>49</v>
       </c>
@@ -1591,7 +1593,7 @@
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
@@ -1627,7 +1629,7 @@
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="5" t="s">
         <v>47</v>
       </c>
@@ -1691,6 +1693,23 @@
   </sheetData>
   <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="27">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A90"/>
@@ -1701,23 +1720,6 @@
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B374CFA5-2519-4DFE-BB6A-5B5F28682A32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20EB3B82-3D7F-44CF-8C28-1CA930CB7C27}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$95</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>Deliverables</t>
   </si>
@@ -72,18 +72,9 @@
     <t>PID</t>
   </si>
   <si>
-    <t>Receiving</t>
-  </si>
-  <si>
-    <t>Receiving List</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
-    <t>Receiving Entry</t>
-  </si>
-  <si>
     <t>Save</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>Issuance List</t>
   </si>
   <si>
-    <t>List Open</t>
-  </si>
-  <si>
     <t>List Allocated</t>
   </si>
   <si>
@@ -268,6 +256,15 @@
   </si>
   <si>
     <t>cant connect to wms@vfreight.com SMTP</t>
+  </si>
+  <si>
+    <t>List Pending</t>
+  </si>
+  <si>
+    <t>List Partially Received</t>
+  </si>
+  <si>
+    <t>List Fully Received</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -412,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -751,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,451 +767,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>45</v>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>59</v>
+      <c r="C5" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>59</v>
+      <c r="C6" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>59</v>
+      <c r="C7" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>59</v>
+      <c r="C10" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>59</v>
+      <c r="C14" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>59</v>
+      <c r="C15" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>59</v>
+      <c r="C16" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>59</v>
+      <c r="C19" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>59</v>
+      <c r="C20" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>59</v>
+      <c r="C21" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>59</v>
+      <c r="C24" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>59</v>
+      <c r="C25" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>59</v>
+      <c r="C26" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>59</v>
+      <c r="C27" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
@@ -1221,311 +1219,317 @@
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="B47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>31</v>
-      </c>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
       <c r="B56" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+      <c r="A58" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+      <c r="A59" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="B59" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A61" s="22"/>
       <c r="B61" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>35</v>
+    <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>36</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="B66" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A68" s="22"/>
       <c r="B68" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>39</v>
+      <c r="A69" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B71" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>40</v>
-      </c>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
       <c r="B72" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="B73" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>41</v>
-      </c>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
       <c r="B74" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="B75" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>42</v>
-      </c>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
       <c r="B76" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="B77" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>44</v>
+      <c r="A80" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
@@ -1533,166 +1537,140 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="B82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>50</v>
-      </c>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
       <c r="B83" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="B84" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>51</v>
-      </c>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
       <c r="B85" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="B86" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>53</v>
-      </c>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
       <c r="B87" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
+      <c r="A88" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="B88" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="A89" s="20"/>
       <c r="B89" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
+      <c r="A90" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B90" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A91" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A92" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>63</v>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:D98" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
-  <mergeCells count="27">
+  <autoFilter ref="A2:D95" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <mergeCells count="26">
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A16"/>
@@ -1700,26 +1678,25 @@
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A66:A68"/>
     <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A59:A61"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A47:A52"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20EB3B82-3D7F-44CF-8C28-1CA930CB7C27}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB7A5061-AFD8-47EB-A667-5EE5BF88D5D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
   <si>
     <t>Deliverables</t>
   </si>
@@ -72,6 +72,9 @@
     <t>PID</t>
   </si>
   <si>
+    <t>Receiving</t>
+  </si>
+  <si>
     <t>Add</t>
   </si>
   <si>
@@ -265,6 +268,9 @@
   </si>
   <si>
     <t>List Fully Received</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -751,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,20 +797,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -814,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -824,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -834,27 +840,27 @@
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -864,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -873,40 +879,40 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -916,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -926,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -935,20 +941,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -958,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -968,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -978,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -987,20 +993,20 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -1010,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -1020,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -1030,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -1040,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -1049,20 +1055,20 @@
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -1072,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -1082,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -1092,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -1101,20 +1107,20 @@
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -1124,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -1134,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -1144,12 +1150,14 @@
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1159,57 +1167,57 @@
     <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
@@ -1217,7 +1225,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="3"/>
@@ -1225,47 +1233,47 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
@@ -1273,7 +1281,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
@@ -1281,17 +1289,17 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
@@ -1299,7 +1307,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
@@ -1307,7 +1315,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
@@ -1315,7 +1323,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="3"/>
@@ -1323,27 +1331,27 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
@@ -1351,7 +1359,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="3"/>
@@ -1359,17 +1367,17 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="3"/>
@@ -1377,7 +1385,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
@@ -1385,27 +1393,27 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
@@ -1413,7 +1421,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
@@ -1421,17 +1429,17 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
@@ -1439,17 +1447,17 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
@@ -1457,17 +1465,17 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
@@ -1475,17 +1483,17 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
@@ -1493,17 +1501,17 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
@@ -1511,7 +1519,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
@@ -1519,17 +1527,17 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
@@ -1537,17 +1545,17 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="3"/>
@@ -1555,17 +1563,17 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="3"/>
@@ -1573,17 +1581,17 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
@@ -1591,17 +1599,17 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
@@ -1609,24 +1617,24 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -1634,7 +1642,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -1642,31 +1650,39 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D93" s="11"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="16"/>
       <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D95" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB7A5061-AFD8-47EB-A667-5EE5BF88D5D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35C65714-8370-445E-A816-1A3E06595295}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$95</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Deliverables</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -368,11 +374,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,16 +443,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,962 +781,1348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="85.85546875" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="85.85546875" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="5" t="s">
+      <c r="D7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="D10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="5" t="s">
+      <c r="D13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="5" t="s">
+      <c r="D15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="D16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="5" t="s">
+      <c r="D18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="5" t="s">
+      <c r="D20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="D21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="5" t="s">
+      <c r="D22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="5" t="s">
+      <c r="D25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="5" t="s">
+      <c r="D26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>25</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="D27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="5" t="s">
+      <c r="D28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>27</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="5" t="s">
+      <c r="D29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>28</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="5" t="s">
+      <c r="D30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="5" t="s">
+      <c r="D31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>30</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="D32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>31</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="5" t="s">
+      <c r="D33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="5" t="s">
+      <c r="D34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>33</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="5" t="s">
+      <c r="D35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>34</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="5" t="s">
+      <c r="D36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="D37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>36</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="5" t="s">
+      <c r="D38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>37</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="5" t="s">
+      <c r="D39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="5" t="s">
+      <c r="D40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>39</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="5" t="s">
+      <c r="D41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>40</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="5" t="s">
+      <c r="D42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>41</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="5" t="s">
+      <c r="D43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>42</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="5" t="s">
+      <c r="D44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>43</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="5" t="s">
+      <c r="D45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="D46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>45</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="5" t="s">
+      <c r="D47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>46</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="5" t="s">
+      <c r="D48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>47</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="5" t="s">
+      <c r="D49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>48</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="5" t="s">
+      <c r="D50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>49</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="5" t="s">
+      <c r="D51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>50</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="D52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>51</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="5" t="s">
+      <c r="D53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>52</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="5" t="s">
+      <c r="D54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>53</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="5" t="s">
+      <c r="D55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>54</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="5" t="s">
+      <c r="D56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>55</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="D57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="D58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <v>57</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="5" t="s">
+      <c r="D59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>58</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="5" t="s">
+      <c r="D60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>59</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="D61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
+        <v>60</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="5" t="s">
+      <c r="D62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>61</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="5" t="s">
+      <c r="D63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>62</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="D64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="19">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="D65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19">
+        <v>64</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="5" t="s">
+      <c r="D66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
+        <v>65</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="5" t="s">
+      <c r="D67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="19">
+        <v>66</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="D68" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
+        <v>67</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="5" t="s">
+      <c r="D69" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>68</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="D70" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
+        <v>69</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="5" t="s">
+      <c r="D71" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
+        <v>70</v>
+      </c>
+      <c r="B72" s="25"/>
+      <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="D72" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
+        <v>71</v>
+      </c>
+      <c r="B73" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="5" t="s">
+      <c r="D73" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="19">
+        <v>72</v>
+      </c>
+      <c r="B74" s="25"/>
+      <c r="C74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="D74" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19">
+        <v>73</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="5" t="s">
+      <c r="D75" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
+        <v>74</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
+        <v>75</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="5" t="s">
+      <c r="D77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="19">
+        <v>76</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="5" t="s">
+      <c r="D78" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
+        <v>77</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="D79" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19">
+        <v>78</v>
+      </c>
+      <c r="B80" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="5" t="s">
+      <c r="D80" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
+        <v>79</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+      <c r="D81" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
+        <v>80</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="5" t="s">
+      <c r="D82" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
+        <v>81</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="D83" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19">
+        <v>82</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="5" t="s">
+      <c r="D84" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
+        <v>83</v>
+      </c>
+      <c r="B85" s="25"/>
+      <c r="C85" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="D85" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="19">
+        <v>84</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="5" t="s">
+      <c r="D86" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
+        <v>85</v>
+      </c>
+      <c r="B87" s="25"/>
+      <c r="C87" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="D87" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="20">
+        <v>86</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="5" t="s">
+      <c r="D88" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="19">
+        <v>87</v>
+      </c>
+      <c r="B89" s="25"/>
+      <c r="C89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="D89" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="19">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="D90" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="20">
+        <v>89</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="C91" s="5"/>
+      <c r="D91" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="19">
+        <v>90</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="19">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="11"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="20">
+        <v>92</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="19">
+        <v>93</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="19">
+        <v>94</v>
+      </c>
+      <c r="B96" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="3"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D95" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
-  <mergeCells count="26">
+  <autoFilter ref="B2:E95" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <mergeCells count="27">
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B21"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35C65714-8370-445E-A816-1A3E06595295}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48ECB2B5-1C74-4973-8621-492CE1809173}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$92</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
   <si>
     <t>Deliverables</t>
   </si>
@@ -81,18 +81,12 @@
     <t>Save</t>
   </si>
   <si>
-    <t>Retrieve</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>Finalize</t>
-  </si>
-  <si>
     <t>Receive</t>
   </si>
   <si>
@@ -105,18 +99,12 @@
     <t>List Allocated</t>
   </si>
   <si>
-    <t>List Finalized</t>
-  </si>
-  <si>
     <t>List Fully Picked</t>
   </si>
   <si>
     <t>Update</t>
   </si>
   <si>
-    <t>Issuance Entry</t>
-  </si>
-  <si>
     <t>Add Row</t>
   </si>
   <si>
@@ -277,6 +265,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Validate Qty Received</t>
+  </si>
+  <si>
+    <t>Putaway List</t>
   </si>
 </sst>
 </file>
@@ -449,23 +443,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,41 +792,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>42</v>
+      <c r="E1" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -840,12 +834,12 @@
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -853,12 +847,12 @@
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -866,12 +860,12 @@
       <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -879,12 +873,12 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -892,27 +886,27 @@
       <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -920,12 +914,12 @@
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -933,14 +927,14 @@
       <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -948,12 +942,12 @@
       <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -961,12 +955,12 @@
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -974,12 +968,12 @@
       <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -987,12 +981,12 @@
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1000,12 +994,12 @@
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1013,14 +1007,14 @@
       <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1028,12 +1022,12 @@
       <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1041,12 +1035,12 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1054,12 +1048,12 @@
       <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1067,12 +1061,12 @@
       <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1080,14 +1074,14 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1095,12 +1089,12 @@
       <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1108,12 +1102,12 @@
       <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1121,12 +1115,12 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1134,12 +1128,12 @@
       <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1147,12 +1141,12 @@
       <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -1160,14 +1154,14 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1175,12 +1169,12 @@
       <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1188,12 +1182,12 @@
       <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1201,12 +1195,12 @@
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -1214,12 +1208,12 @@
       <c r="A32" s="19">
         <v>30</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1227,14 +1221,14 @@
       <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -1242,12 +1236,12 @@
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -1255,12 +1249,12 @@
       <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -1268,12 +1262,12 @@
       <c r="A36" s="19">
         <v>34</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -1281,12 +1275,12 @@
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1294,14 +1288,14 @@
       <c r="A38" s="19">
         <v>36</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1309,12 +1303,12 @@
       <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1322,12 +1316,12 @@
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -1335,12 +1329,12 @@
       <c r="A41" s="19">
         <v>39</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -1348,12 +1342,12 @@
       <c r="A42" s="19">
         <v>40</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -1361,12 +1355,12 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -1374,12 +1368,12 @@
       <c r="A44" s="19">
         <v>42</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -1387,742 +1381,687 @@
       <c r="A45" s="19">
         <v>43</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>44</v>
-      </c>
-      <c r="B46" s="25"/>
+      <c r="A46" s="19">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
-        <v>45</v>
-      </c>
-      <c r="B47" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>46</v>
-      </c>
-      <c r="B48" s="22"/>
+      <c r="A48" s="20">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23"/>
       <c r="C48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>49</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>47</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
-        <v>48</v>
-      </c>
-      <c r="B50" s="22"/>
+        <v>52</v>
+      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
-        <v>49</v>
-      </c>
-      <c r="B51" s="22"/>
+      <c r="A51" s="20">
+        <v>53</v>
+      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>50</v>
-      </c>
-      <c r="B52" s="22"/>
+      <c r="A52" s="19">
+        <v>54</v>
+      </c>
+      <c r="B52" s="23"/>
       <c r="C52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
-        <v>51</v>
-      </c>
-      <c r="B53" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>56</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>57</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>52</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>53</v>
-      </c>
-      <c r="B55" s="22"/>
       <c r="C55" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
-        <v>54</v>
-      </c>
-      <c r="B56" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="B56" s="25"/>
       <c r="C56" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <v>55</v>
-      </c>
-      <c r="B57" s="22"/>
+      <c r="A57" s="20">
+        <v>59</v>
+      </c>
+      <c r="B57" s="25"/>
       <c r="C57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>60</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
-        <v>56</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
-        <v>57</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>32</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B59" s="25"/>
       <c r="C59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>62</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
-        <v>58</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>59</v>
-      </c>
-      <c r="B61" s="22"/>
+      <c r="A61" s="19">
+        <v>63</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
-        <v>60</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <v>61</v>
-      </c>
-      <c r="B63" s="22"/>
+      <c r="A63" s="20">
+        <v>65</v>
+      </c>
+      <c r="B63" s="25"/>
       <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
-        <v>62</v>
-      </c>
-      <c r="B64" s="22"/>
+      <c r="A64" s="19">
+        <v>66</v>
+      </c>
+      <c r="B64" s="25"/>
       <c r="C64" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
-        <v>63</v>
-      </c>
-      <c r="B65" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
+        <v>68</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19">
+        <v>69</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
-        <v>64</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
-        <v>65</v>
-      </c>
-      <c r="B67" s="22"/>
       <c r="C67" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
-        <v>67</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>37</v>
+      <c r="A69" s="20">
+        <v>71</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
-        <v>68</v>
-      </c>
-      <c r="B70" s="25"/>
+      <c r="A70" s="19">
+        <v>72</v>
+      </c>
+      <c r="B70" s="22"/>
       <c r="C70" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
-        <v>69</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
-        <v>70</v>
-      </c>
-      <c r="B72" s="25"/>
+      <c r="A72" s="20">
+        <v>74</v>
+      </c>
+      <c r="B72" s="22"/>
       <c r="C72" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
-        <v>71</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>39</v>
+      <c r="A73" s="19">
+        <v>75</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
-        <v>72</v>
-      </c>
-      <c r="B74" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="B74" s="23"/>
       <c r="C74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="20">
+        <v>77</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
+        <v>78</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
+        <v>79</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
+        <v>80</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
-        <v>73</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
-        <v>74</v>
-      </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
-        <v>75</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
-        <v>76</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D78" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
-        <v>77</v>
-      </c>
-      <c r="B79" s="25"/>
+      <c r="A79" s="19">
+        <v>81</v>
+      </c>
+      <c r="B79" s="22"/>
       <c r="C79" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
-        <v>78</v>
-      </c>
-      <c r="B80" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D80" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
-        <v>79</v>
-      </c>
-      <c r="B81" s="25"/>
+      <c r="A81" s="20">
+        <v>83</v>
+      </c>
+      <c r="B81" s="22"/>
       <c r="C81" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
-        <v>80</v>
-      </c>
-      <c r="B82" s="23" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="19">
+        <v>84</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
-        <v>81</v>
-      </c>
-      <c r="B83" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="B83" s="22"/>
       <c r="C83" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19">
-        <v>82</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>50</v>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
+        <v>86</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
-        <v>83</v>
-      </c>
-      <c r="B85" s="25"/>
+      <c r="A85" s="19">
+        <v>87</v>
+      </c>
+      <c r="B85" s="22"/>
       <c r="C85" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
-        <v>84</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>52</v>
+        <v>88</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="19">
-        <v>85</v>
-      </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A87" s="20">
+        <v>89</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
-        <v>86</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A88" s="19">
+        <v>90</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="5"/>
       <c r="D88" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
-        <v>87</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E89" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
-        <v>88</v>
+      <c r="A90" s="20">
+        <v>92</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
-        <v>89</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>59</v>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="19">
+        <v>93</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="6" t="s">
-        <v>82</v>
+      <c r="D91" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
-        <v>90</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>60</v>
+        <v>94</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="6" t="s">
-        <v>82</v>
+      <c r="D92" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="19">
-        <v>91</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="20">
-        <v>92</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="19">
-        <v>93</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
-        <v>94</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:E95" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
-  <mergeCells count="27">
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B38:B46"/>
+  <autoFilter ref="B2:E92" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48ECB2B5-1C74-4973-8621-492CE1809173}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAE17658-A8FE-4A40-BA45-78D506FE42EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$93</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
   <si>
     <t>Deliverables</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Putaway List</t>
+  </si>
+  <si>
+    <t>Allocate</t>
+  </si>
+  <si>
+    <t>Pick</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,6 +447,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,34 +804,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -834,7 +846,7 @@
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
@@ -847,7 +859,7 @@
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -860,7 +872,7 @@
       <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
@@ -873,7 +885,7 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
@@ -886,7 +898,7 @@
       <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
@@ -901,7 +913,7 @@
       <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
@@ -914,7 +926,7 @@
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -927,7 +939,7 @@
       <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -942,7 +954,7 @@
       <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
@@ -955,7 +967,7 @@
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
@@ -968,7 +980,7 @@
       <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>62</v>
       </c>
@@ -981,7 +993,7 @@
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1006,7 @@
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1019,7 @@
       <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1022,7 +1034,7 @@
       <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1035,7 +1047,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1060,7 @@
       <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1073,7 @@
       <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1086,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1089,7 +1101,7 @@
       <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
@@ -1102,7 +1114,7 @@
       <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1127,7 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1140,7 @@
       <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1153,7 @@
       <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1166,7 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1169,7 +1181,7 @@
       <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1194,7 @@
       <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1207,7 @@
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1220,7 @@
       <c r="A32" s="19">
         <v>30</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1233,7 @@
       <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1236,7 +1248,7 @@
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
@@ -1249,7 +1261,7 @@
       <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1274,7 @@
       <c r="A36" s="19">
         <v>34</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1287,7 @@
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1300,7 @@
       <c r="A38" s="19">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1303,7 +1315,7 @@
       <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
@@ -1316,7 +1328,7 @@
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="5" t="s">
         <v>74</v>
       </c>
@@ -1329,7 +1341,7 @@
       <c r="A41" s="19">
         <v>39</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="5" t="s">
         <v>75</v>
       </c>
@@ -1342,7 +1354,7 @@
       <c r="A42" s="19">
         <v>40</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1367,7 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +1380,7 @@
       <c r="A44" s="19">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1393,7 @@
       <c r="A45" s="19">
         <v>43</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1406,7 @@
       <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1409,7 +1421,7 @@
       <c r="A47" s="19">
         <v>46</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="5" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1434,7 @@
       <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="5" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1447,7 @@
       <c r="A49" s="19">
         <v>49</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="5" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1460,7 @@
       <c r="A50" s="19">
         <v>52</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1473,7 @@
       <c r="A51" s="20">
         <v>53</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
@@ -1474,7 +1486,7 @@
       <c r="A52" s="19">
         <v>54</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="5" t="s">
         <v>18</v>
       </c>
@@ -1484,109 +1496,103 @@
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
-        <v>55</v>
-      </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>56</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B54" s="25"/>
       <c r="C54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
+        <v>55</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>56</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
         <v>57</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B57" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
+      <c r="D57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
         <v>58</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
-        <v>59</v>
-      </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
-        <v>60</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="B58" s="27"/>
       <c r="C58" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
-        <v>61</v>
-      </c>
-      <c r="B59" s="25"/>
+      <c r="A59" s="20">
+        <v>59</v>
+      </c>
+      <c r="B59" s="27"/>
       <c r="C59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>62</v>
-      </c>
-      <c r="B60" s="25"/>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>60</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>78</v>
@@ -1595,82 +1601,80 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
+        <v>61</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>62</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
         <v>63</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="D63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
         <v>64</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B64" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
+      <c r="D64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
         <v>65</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="5" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
+      <c r="D65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19">
         <v>66</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="5" t="s">
+      <c r="B66" s="27"/>
+      <c r="C66" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
-        <v>67</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
-        <v>68</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>78</v>
@@ -1679,10 +1683,10 @@
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
-        <v>69</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>39</v>
@@ -1693,10 +1697,10 @@
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
-        <v>70</v>
-      </c>
-      <c r="B68" s="22"/>
+      <c r="A68" s="20">
+        <v>68</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="5" t="s">
         <v>40</v>
       </c>
@@ -1706,11 +1710,11 @@
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
-        <v>71</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>35</v>
+      <c r="A69" s="19">
+        <v>69</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
@@ -1722,9 +1726,9 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
-        <v>72</v>
-      </c>
-      <c r="B70" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="5" t="s">
         <v>40</v>
       </c>
@@ -1734,11 +1738,11 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
-        <v>73</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>36</v>
+      <c r="A71" s="20">
+        <v>71</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>39</v>
@@ -1749,25 +1753,27 @@
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
-        <v>74</v>
-      </c>
-      <c r="B72" s="22"/>
+      <c r="A72" s="19">
+        <v>72</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
-        <v>75</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>78</v>
@@ -1775,68 +1781,66 @@
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
-        <v>76</v>
-      </c>
-      <c r="B74" s="23"/>
+      <c r="A74" s="20">
+        <v>74</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="D74" s="6"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19">
+        <v>75</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
+        <v>76</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="20">
         <v>77</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="5" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
-        <v>78</v>
-      </c>
-      <c r="B76" s="21" t="s">
+      <c r="D77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19">
+        <v>78</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
-        <v>79</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
-        <v>80</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>78</v>
@@ -1845,37 +1849,37 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
+        <v>79</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>80</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
         <v>81</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19">
-        <v>82</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
-        <v>83</v>
-      </c>
-      <c r="B81" s="22"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="5" t="s">
         <v>42</v>
       </c>
@@ -1884,15 +1888,15 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
-        <v>84</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>78</v>
@@ -1900,10 +1904,10 @@
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
-        <v>85</v>
-      </c>
-      <c r="B83" s="22"/>
+      <c r="A83" s="20">
+        <v>83</v>
+      </c>
+      <c r="B83" s="24"/>
       <c r="C83" s="5" t="s">
         <v>42</v>
       </c>
@@ -1913,27 +1917,29 @@
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
+      <c r="A84" s="19">
+        <v>85</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
         <v>86</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B85" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="19">
-        <v>87</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>78</v>
@@ -1942,38 +1948,38 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
+        <v>87</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
         <v>88</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B87" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="20">
+      <c r="D87" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="20">
         <v>89</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="19">
-        <v>90</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6" t="s">
@@ -1983,59 +1989,72 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
+        <v>90</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="19">
         <v>91</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="20">
+      <c r="C90" s="10"/>
+      <c r="D90" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="20">
         <v>92</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
+      <c r="C91" s="5"/>
+      <c r="D91" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="19">
         <v>93</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="19">
+      <c r="C92" s="5"/>
+      <c r="D92" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="19">
         <v>94</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B93" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="3"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E92" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
-  <mergeCells count="26">
+  <autoFilter ref="B2:E93" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B3:B10"/>
@@ -2045,23 +2064,22 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B46:B55"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B85:B86"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAE17658-A8FE-4A40-BA45-78D506FE42EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B959C1F-4138-4ED0-9FB3-A42D0A0B42A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$94</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
   <si>
     <t>Deliverables</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Pick</t>
+  </si>
+  <si>
+    <t>List and pdf is on Issuance -&gt; Shipped. Should I create a separate link on reports?</t>
+  </si>
+  <si>
+    <t>List and pdf is on Issuance -&gt; Picked. Should I create a separate link on reports?</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -450,9 +456,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -787,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,34 +807,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -846,7 +849,7 @@
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
@@ -859,7 +862,7 @@
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
@@ -898,7 +901,7 @@
       <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
@@ -913,7 +916,7 @@
       <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -939,7 +942,7 @@
       <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -954,7 +957,7 @@
       <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
@@ -967,7 +970,7 @@
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
@@ -980,7 +983,7 @@
       <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>62</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1009,7 @@
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1022,7 @@
       <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1034,7 +1037,7 @@
       <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1047,7 +1050,7 @@
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1076,7 @@
       <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1089,7 @@
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1101,7 +1104,7 @@
       <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1130,7 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1143,7 @@
       <c r="A26" s="19">
         <v>24</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1156,7 @@
       <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1169,7 @@
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1181,7 +1184,7 @@
       <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
@@ -1194,7 +1197,7 @@
       <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1210,7 @@
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="A32" s="19">
         <v>30</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1236,7 @@
       <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1248,7 +1251,7 @@
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1264,7 @@
       <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1277,7 @@
       <c r="A36" s="19">
         <v>34</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1290,7 @@
       <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1300,14 +1303,14 @@
       <c r="A38" s="19">
         <v>36</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1315,7 +1318,7 @@
       <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
@@ -1328,7 +1331,7 @@
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
         <v>74</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="A41" s="19">
         <v>39</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
         <v>75</v>
       </c>
@@ -1354,7 +1357,7 @@
       <c r="A42" s="19">
         <v>40</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="5" t="s">
         <v>16</v>
       </c>
@@ -1367,7 +1370,7 @@
       <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1383,7 @@
       <c r="A44" s="19">
         <v>42</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1396,7 @@
       <c r="A45" s="19">
         <v>43</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1421,7 +1424,7 @@
       <c r="A47" s="19">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +1437,7 @@
       <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
         <v>23</v>
       </c>
@@ -1447,7 +1450,7 @@
       <c r="A49" s="19">
         <v>49</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
         <v>24</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="A50" s="19">
         <v>52</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1476,7 @@
       <c r="A51" s="20">
         <v>53</v>
       </c>
-      <c r="B51" s="25"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
@@ -1486,7 +1489,7 @@
       <c r="A52" s="19">
         <v>54</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="5" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1499,7 @@
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
         <v>81</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
         <v>82</v>
       </c>
@@ -1519,7 +1522,7 @@
       <c r="A55" s="19">
         <v>55</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="5" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +1550,7 @@
       <c r="A57" s="19">
         <v>57</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -1562,7 +1565,7 @@
       <c r="A58" s="19">
         <v>58</v>
       </c>
-      <c r="B58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="5" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1578,7 @@
       <c r="A59" s="20">
         <v>59</v>
       </c>
-      <c r="B59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="5" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="A60" s="19">
         <v>60</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -1603,7 +1606,7 @@
       <c r="A61" s="19">
         <v>61</v>
       </c>
-      <c r="B61" s="27"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="5" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1619,7 @@
       <c r="A62" s="20">
         <v>62</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
@@ -1644,7 +1647,7 @@
       <c r="A64" s="19">
         <v>64</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -1659,7 +1662,7 @@
       <c r="A65" s="20">
         <v>65</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="5" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1675,7 @@
       <c r="A66" s="19">
         <v>66</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1685,7 +1688,7 @@
       <c r="A67" s="19">
         <v>67</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -1700,7 +1703,7 @@
       <c r="A68" s="20">
         <v>68</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="5" t="s">
         <v>40</v>
       </c>
@@ -1713,7 +1716,7 @@
       <c r="A69" s="19">
         <v>69</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -1728,7 +1731,7 @@
       <c r="A70" s="19">
         <v>70</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="5" t="s">
         <v>40</v>
       </c>
@@ -1741,7 +1744,7 @@
       <c r="A71" s="20">
         <v>71</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -1756,7 +1759,7 @@
       <c r="A72" s="19">
         <v>72</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="5" t="s">
         <v>40</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="A73" s="19">
         <v>73</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -1784,7 +1787,7 @@
       <c r="A74" s="20">
         <v>74</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="5" t="s">
         <v>40</v>
       </c>
@@ -1795,7 +1798,7 @@
       <c r="A75" s="19">
         <v>75</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -1810,7 +1813,7 @@
       <c r="A76" s="19">
         <v>76</v>
       </c>
-      <c r="B76" s="25"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="5" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="A77" s="20">
         <v>77</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="5" t="s">
         <v>42</v>
       </c>
@@ -1836,7 +1839,7 @@
       <c r="A78" s="19">
         <v>78</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -1851,7 +1854,7 @@
       <c r="A79" s="19">
         <v>79</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="5" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +1867,7 @@
       <c r="A80" s="20">
         <v>80</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -1879,7 +1882,7 @@
       <c r="A81" s="19">
         <v>81</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="5" t="s">
         <v>42</v>
       </c>
@@ -1888,11 +1891,11 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>82</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -1901,58 +1904,60 @@
       <c r="D82" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>83</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="19">
-        <v>85</v>
-      </c>
+      <c r="A84" s="20"/>
       <c r="B84" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
+        <v>85</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="20">
+      <c r="D85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="20">
         <v>86</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B86" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
-        <v>87</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>78</v>
@@ -1961,38 +1966,38 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
+        <v>87</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="19">
         <v>88</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
+      <c r="D88" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="20">
         <v>89</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="19">
-        <v>90</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6" t="s">
@@ -2002,59 +2007,72 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
+        <v>90</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="19">
         <v>91</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
+      <c r="C91" s="10"/>
+      <c r="D91" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="20">
         <v>92</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="19">
+      <c r="C92" s="5"/>
+      <c r="D92" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="19">
         <v>93</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B93" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="19">
+      <c r="C93" s="5"/>
+      <c r="D93" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="19">
         <v>94</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B94" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E93" s="3"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E93" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
-  <mergeCells count="25">
+  <autoFilter ref="B2:E94" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B3:B10"/>
@@ -2073,7 +2091,8 @@
     <mergeCell ref="B46:B55"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B959C1F-4138-4ED0-9FB3-A42D0A0B42A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF75BC51-B9CB-40C3-B02C-8E3F9E524E1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$97</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
   <si>
     <t>Deliverables</t>
   </si>
@@ -99,9 +99,6 @@
     <t>List Allocated</t>
   </si>
   <si>
-    <t>List Fully Picked</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
@@ -283,6 +280,18 @@
   </si>
   <si>
     <t>List and pdf is on Issuance -&gt; Picked. Should I create a separate link on reports?</t>
+  </si>
+  <si>
+    <t>List Picked</t>
+  </si>
+  <si>
+    <t>List Shipped</t>
+  </si>
+  <si>
+    <t>Un-allocate</t>
+  </si>
+  <si>
+    <t>Un-Pick</t>
   </si>
 </sst>
 </file>
@@ -790,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>2</v>
@@ -820,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -851,10 +860,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -867,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -880,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -893,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -903,13 +912,13 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -918,10 +927,10 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -934,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -946,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -959,10 +968,10 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -972,10 +981,10 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -985,10 +994,10 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1001,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1014,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1026,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1039,10 +1048,10 @@
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1055,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1068,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1081,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1093,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1106,10 +1115,10 @@
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1122,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1135,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1148,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1161,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -1173,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1189,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1202,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1215,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -1228,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1240,10 +1249,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -1256,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -1269,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -1282,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -1295,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1307,10 +1316,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1320,10 +1329,10 @@
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1333,10 +1342,10 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -1346,10 +1355,10 @@
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -1362,7 +1371,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -1375,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -1388,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -1401,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -1413,10 +1422,10 @@
         <v>20</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1429,649 +1438,676 @@
         <v>22</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>47</v>
-      </c>
       <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>52</v>
+        <v>84</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>49</v>
+      <c r="A49" s="20">
+        <v>47</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
         <v>52</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>53</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
-        <v>54</v>
+      <c r="A52" s="20">
+        <v>53</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>54</v>
+      </c>
       <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
-        <v>55</v>
-      </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>52</v>
+        <v>81</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
-        <v>56</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <v>57</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
-        <v>58</v>
-      </c>
-      <c r="B58" s="26"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
-        <v>59</v>
-      </c>
-      <c r="B59" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
-        <v>63</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
-        <v>64</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>32</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B64" s="26"/>
       <c r="C64" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
-        <v>66</v>
-      </c>
-      <c r="B66" s="26"/>
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C66" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
-        <v>67</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
+        <v>65</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
+        <v>66</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19">
+        <v>67</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
         <v>68</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
-        <v>69</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
-        <v>70</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
-        <v>71</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="B71" s="23"/>
       <c r="C71" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
-        <v>72</v>
-      </c>
-      <c r="B72" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
-        <v>73</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>36</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B73" s="23"/>
       <c r="C73" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
-        <v>74</v>
-      </c>
-      <c r="B74" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
-        <v>75</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>37</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B75" s="23"/>
       <c r="C75" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
-        <v>76</v>
-      </c>
-      <c r="B76" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
-        <v>79</v>
-      </c>
-      <c r="B79" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="24"/>
       <c r="C79" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>77</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
         <v>78</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
-        <v>80</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
-        <v>81</v>
-      </c>
-      <c r="B81" s="23"/>
+      <c r="B81" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C81" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
-        <v>82</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>46</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B82" s="23"/>
       <c r="C82" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
-        <v>83</v>
-      </c>
-      <c r="B83" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="C83" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="A84" s="19">
+        <v>81</v>
+      </c>
+      <c r="B84" s="23"/>
       <c r="C84" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
-        <v>85</v>
-      </c>
-      <c r="B85" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
-        <v>86</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>49</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B86" s="23"/>
       <c r="C86" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="19">
-        <v>87</v>
-      </c>
-      <c r="B87" s="23"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="C87" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
-        <v>88</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B88" s="23"/>
       <c r="C88" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
-        <v>89</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D89" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
-        <v>90</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D90" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
-        <v>91</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E91" s="11"/>
+      <c r="D91" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="8" t="s">
-        <v>52</v>
+      <c r="D92" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
-        <v>93</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="16" t="s">
-        <v>78</v>
+      <c r="D93" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
+        <v>91</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="20">
+        <v>92</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="19">
+        <v>93</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="19">
         <v>94</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="3"/>
+      <c r="B97" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E94" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <autoFilter ref="B2:E97" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
@@ -2082,23 +2118,23 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B63:B65"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B46:B58"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF75BC51-B9CB-40C3-B02C-8E3F9E524E1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87B72393-D5A6-4FA5-B2D8-04FC8AC62B7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="88">
   <si>
     <t>Deliverables</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Customerkey dropdown</t>
   </si>
   <si>
-    <t>PID</t>
-  </si>
-  <si>
     <t>Receiving</t>
   </si>
   <si>
@@ -105,18 +102,9 @@
     <t>Add Row</t>
   </si>
   <si>
-    <t>STO</t>
-  </si>
-  <si>
-    <t>STO Trans List</t>
-  </si>
-  <si>
     <t>Putaway</t>
   </si>
   <si>
-    <t>Stock Transfer Entry</t>
-  </si>
-  <si>
     <t>Adjustments</t>
   </si>
   <si>
@@ -231,9 +219,6 @@
     <t>Add Sku</t>
   </si>
   <si>
-    <t>Pallet ID List</t>
-  </si>
-  <si>
     <t>Change Theme</t>
   </si>
   <si>
@@ -292,6 +277,21 @@
   </si>
   <si>
     <t>Un-Pick</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Transfer List</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>UOM List</t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -860,10 +860,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -902,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -912,13 +912,13 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -955,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -968,10 +968,10 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -981,10 +981,10 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -994,10 +994,10 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1035,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1048,10 +1048,10 @@
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1064,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1102,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1115,10 +1115,10 @@
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1157,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1170,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -1182,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1195,10 +1195,10 @@
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1211,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1246,13 +1246,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -1262,10 +1262,10 @@
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -1278,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1313,13 +1313,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1329,10 +1329,10 @@
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1342,10 +1342,10 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -1355,10 +1355,10 @@
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -1368,10 +1368,10 @@
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -1381,10 +1381,10 @@
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -1407,10 +1407,10 @@
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -1419,13 +1419,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1435,20 +1435,20 @@
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -1458,10 +1458,10 @@
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -1471,10 +1471,10 @@
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -1484,10 +1484,10 @@
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -1497,10 +1497,10 @@
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -1510,157 +1510,149 @@
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="24"/>
       <c r="C55" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="24"/>
       <c r="C56" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="24"/>
       <c r="C57" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>56</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>25</v>
+      <c r="A59" s="19">
+        <v>57</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
-        <v>57</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>27</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B60" s="26"/>
       <c r="C60" s="5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
-        <v>58</v>
+      <c r="A61" s="20">
+        <v>59</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>59</v>
-      </c>
-      <c r="B62" s="26"/>
+      <c r="A62" s="19">
+        <v>60</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="C62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="26"/>
+      <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <v>60</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>77</v>
+      <c r="D63" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
-        <v>61</v>
-      </c>
       <c r="B64" s="26"/>
       <c r="C64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
-        <v>62</v>
+      <c r="A65" s="19">
+        <v>61</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="5" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E65" s="3"/>
     </row>
@@ -1669,13 +1661,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -1684,13 +1676,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -1700,10 +1692,10 @@
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -1713,10 +1705,10 @@
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -1725,13 +1717,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -1741,10 +1733,10 @@
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -1753,13 +1745,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -1769,10 +1761,10 @@
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -1781,13 +1773,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D74" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -1797,10 +1789,10 @@
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -1809,13 +1801,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E76" s="3"/>
     </row>
@@ -1825,7 +1817,7 @@
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="3"/>
@@ -1835,13 +1827,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D78" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E78" s="3"/>
     </row>
@@ -1851,10 +1843,10 @@
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E79" s="3"/>
     </row>
@@ -1864,10 +1856,10 @@
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E80" s="3"/>
     </row>
@@ -1876,13 +1868,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E81" s="3"/>
     </row>
@@ -1892,10 +1884,10 @@
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -1904,13 +1896,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -1920,10 +1912,10 @@
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -1932,16 +1924,16 @@
         <v>82</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D85" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,26 +1942,26 @@
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,10 +1970,10 @@
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -1990,13 +1982,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -2006,10 +1998,10 @@
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -2018,13 +2010,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -2033,11 +2025,11 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E92" s="3"/>
     </row>
@@ -2046,11 +2038,11 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -2059,11 +2051,11 @@
         <v>91</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E94" s="11"/>
     </row>
@@ -2072,11 +2064,11 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E95" s="3"/>
     </row>
@@ -2085,11 +2077,11 @@
         <v>93</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E96" s="3"/>
     </row>
@@ -2098,11 +2090,11 @@
         <v>94</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -2119,8 +2111,8 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B59:B61"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B38:B45"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87B72393-D5A6-4FA5-B2D8-04FC8AC62B7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE8EE873-3CEB-436D-AE7E-A91F27AB473F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE8EE873-3CEB-436D-AE7E-A91F27AB473F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B505505-AF5F-48AD-B9EE-EE6D4ED5BA2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="89">
   <si>
     <t>Deliverables</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Adjustment Trans List</t>
   </si>
   <si>
-    <t>Adjustment Entry</t>
-  </si>
-  <si>
     <t>Inventory Report</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>UOM List</t>
+  </si>
+  <si>
+    <t>Need to configure vfreight.com SMTP settings to send email.</t>
+  </si>
+  <si>
+    <t>Inventory Report per Exp List</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +820,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>2</v>
@@ -829,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -860,10 +863,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -876,12 +879,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="24"/>
@@ -889,12 +892,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" s="24"/>
@@ -902,23 +905,23 @@
         <v>6</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,10 +930,10 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -943,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -955,49 +958,49 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1010,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1023,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1035,28 +1038,28 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
       <c r="B19" s="24"/>
@@ -1064,12 +1067,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>18</v>
       </c>
       <c r="B20" s="24"/>
@@ -1077,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1090,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1102,10 +1105,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1115,15 +1118,15 @@
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="20">
         <v>22</v>
       </c>
       <c r="B24" s="24"/>
@@ -1131,12 +1134,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
       <c r="B25" s="24"/>
@@ -1144,12 +1147,12 @@
         <v>5</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="20">
         <v>24</v>
       </c>
       <c r="B26" s="24"/>
@@ -1157,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1170,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -1182,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1198,12 +1201,12 @@
         <v>14</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="20">
         <v>28</v>
       </c>
       <c r="B30" s="24"/>
@@ -1211,12 +1214,12 @@
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>29</v>
       </c>
       <c r="B31" s="24"/>
@@ -1224,12 +1227,12 @@
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="20">
         <v>30</v>
       </c>
       <c r="B32" s="23"/>
@@ -1237,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1246,13 +1249,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -1265,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -1278,12 +1281,12 @@
         <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="20">
         <v>34</v>
       </c>
       <c r="B36" s="24"/>
@@ -1291,12 +1294,12 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>35</v>
       </c>
       <c r="B37" s="23"/>
@@ -1304,22 +1307,22 @@
         <v>6</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="20">
         <v>36</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1329,10 +1332,10 @@
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1342,10 +1345,10 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -1355,15 +1358,15 @@
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="20">
         <v>40</v>
       </c>
       <c r="B42" s="24"/>
@@ -1371,12 +1374,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>41</v>
       </c>
       <c r="B43" s="24"/>
@@ -1384,12 +1387,12 @@
         <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="20">
         <v>42</v>
       </c>
       <c r="B44" s="24"/>
@@ -1397,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -1410,160 +1413,178 @@
         <v>18</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>45</v>
+      <c r="A46" s="20">
+        <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>46</v>
+      </c>
       <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>47</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <v>49</v>
+      <c r="A50" s="20">
+        <v>48</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>52</v>
+      </c>
       <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>53</v>
+      </c>
       <c r="B55" s="24"/>
       <c r="C55" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>54</v>
+      </c>
       <c r="B56" s="24"/>
       <c r="C56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>55</v>
+      </c>
       <c r="B57" s="24"/>
       <c r="C57" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>56</v>
+      </c>
       <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -1575,15 +1596,15 @@
         <v>24</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="20">
         <v>58</v>
       </c>
       <c r="B60" s="26"/>
@@ -1591,12 +1612,12 @@
         <v>16</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+      <c r="A61" s="19">
         <v>59</v>
       </c>
       <c r="B61" s="26"/>
@@ -1604,497 +1625,507 @@
         <v>15</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="A62" s="20">
         <v>60</v>
       </c>
       <c r="B62" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>61</v>
+      </c>
       <c r="B63" s="26"/>
       <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>62</v>
+      </c>
       <c r="B64" s="26"/>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
-        <v>63</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="20">
+        <v>64</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
-        <v>64</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>27</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B67" s="24"/>
       <c r="C67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
-        <v>65</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
-        <v>66</v>
-      </c>
-      <c r="B69" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="23"/>
       <c r="C69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
-        <v>67</v>
+      <c r="A70" s="20">
+        <v>68</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
-        <v>68</v>
+      <c r="A71" s="19">
+        <v>69</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
-        <v>69</v>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
+        <v>70</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
-        <v>73</v>
+      <c r="A76" s="20">
+        <v>74</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
-        <v>74</v>
+      <c r="A77" s="19">
+        <v>75</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
+        <v>76</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
-        <v>75</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D78" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="19">
-        <v>79</v>
+      <c r="A82" s="20">
+        <v>80</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
-        <v>80</v>
+      <c r="A83" s="19">
+        <v>81</v>
       </c>
       <c r="B83" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D83" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="19">
-        <v>81</v>
+      <c r="A84" s="20">
+        <v>82</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D85" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="19">
+        <v>85</v>
+      </c>
       <c r="B87" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="19">
-        <v>85</v>
+      <c r="A88" s="20">
+        <v>86</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="20">
-        <v>86</v>
+      <c r="A89" s="19">
+        <v>87</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
-        <v>87</v>
+      <c r="A90" s="20">
+        <v>88</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="19">
-        <v>91</v>
+      <c r="A94" s="20">
+        <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="20">
-        <v>92</v>
+      <c r="A95" s="19">
+        <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
-        <v>93</v>
+      <c r="A96" s="20">
+        <v>94</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -2110,13 +2141,13 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="B46:B58"/>
+    <mergeCell ref="B66:B69"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B88"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B505505-AF5F-48AD-B9EE-EE6D4ED5BA2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D91CA1E-F4E1-47CE-B368-A7A017EF1652}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -802,10 +802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +843,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -857,7 +858,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -870,7 +871,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -883,7 +884,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -896,7 +897,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -924,7 +925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -937,7 +938,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -950,7 +951,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -965,7 +966,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -978,7 +979,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -991,7 +992,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -1017,7 +1018,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>15</v>
       </c>
@@ -1045,7 +1046,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -1058,7 +1059,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -1071,7 +1072,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -1084,7 +1085,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -1097,7 +1098,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -1112,7 +1113,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -1138,7 +1139,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -1151,7 +1152,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -1164,7 +1165,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>25</v>
       </c>
@@ -1177,7 +1178,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -1192,7 +1193,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>27</v>
       </c>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -1218,7 +1219,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>29</v>
       </c>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>30</v>
       </c>
@@ -1244,7 +1245,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>32</v>
       </c>
@@ -1272,7 +1273,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -1285,7 +1286,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>34</v>
       </c>
@@ -1298,7 +1299,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>35</v>
       </c>
@@ -1311,7 +1312,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>36</v>
       </c>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -1339,7 +1340,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>38</v>
       </c>
@@ -1352,7 +1353,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -1365,7 +1366,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>40</v>
       </c>
@@ -1378,7 +1379,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -1391,7 +1392,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -1404,7 +1405,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>43</v>
       </c>
@@ -1417,7 +1418,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>44</v>
       </c>
@@ -1432,7 +1433,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -1445,7 +1446,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>46</v>
       </c>
@@ -1458,7 +1459,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>47</v>
       </c>
@@ -1471,7 +1472,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>48</v>
       </c>
@@ -1484,7 +1485,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -1497,7 +1498,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>50</v>
       </c>
@@ -1523,7 +1524,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>52</v>
       </c>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>53</v>
       </c>
@@ -1549,7 +1550,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>54</v>
       </c>
@@ -1588,7 +1589,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -1603,7 +1604,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>58</v>
       </c>
@@ -1616,7 +1617,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>59</v>
       </c>
@@ -1629,7 +1630,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>60</v>
       </c>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>61</v>
       </c>
@@ -1657,7 +1658,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>62</v>
       </c>
@@ -1670,7 +1671,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -1698,7 +1699,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>68</v>
       </c>
@@ -1752,7 +1753,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -1765,7 +1766,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -1780,7 +1781,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -1793,7 +1794,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>72</v>
       </c>
@@ -1808,7 +1809,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>73</v>
       </c>
@@ -1821,7 +1822,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>74</v>
       </c>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>75</v>
       </c>
@@ -1849,7 +1850,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>76</v>
       </c>
@@ -1864,7 +1865,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>77</v>
       </c>
@@ -1877,7 +1878,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>78</v>
       </c>
@@ -1890,7 +1891,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>79</v>
       </c>
@@ -1901,11 +1902,11 @@
         <v>20</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>80</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>34</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -1957,13 +1958,13 @@
         <v>41</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>84</v>
       </c>
@@ -1987,13 +1988,13 @@
         <v>42</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>86</v>
       </c>
@@ -2006,7 +2007,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>87</v>
       </c>
@@ -2021,7 +2022,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>88</v>
       </c>
@@ -2034,7 +2035,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>89</v>
       </c>
@@ -2049,7 +2050,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>90</v>
       </c>
@@ -2062,7 +2063,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>91</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>92</v>
       </c>
@@ -2090,7 +2091,7 @@
       </c>
       <c r="E94" s="11"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>93</v>
       </c>
@@ -2130,7 +2131,13 @@
       <c r="E97" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E97" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
+  <autoFilter ref="B2:E97" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="-"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="26">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D91CA1E-F4E1-47CE-B368-A7A017EF1652}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{231F8F6B-87E6-4487-86E1-4D1189784BEE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>55</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>80</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -1585,7 +1585,7 @@
         <v>81</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -1695,11 +1695,11 @@
         <v>26</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -1708,11 +1708,11 @@
         <v>16</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>66</v>
       </c>
@@ -1721,11 +1721,11 @@
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -1930,7 +1930,7 @@
         <v>39</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -1943,11 +1943,11 @@
         <v>36</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>83</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>85</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E96" s="3"/>
     </row>

--- a/WMS Deliverables.xlsx
+++ b/WMS Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOQUITAN\OneDrive - Schenker AG\Documents\GitHub\WMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{231F8F6B-87E6-4487-86E1-4D1189784BEE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54D39C6F-564B-42D0-AEDE-0220D004F640}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8130" xr2:uid="{94CC23CC-3793-45CD-B8BE-979C4E7AE973}"/>
   </bookViews>
@@ -470,23 +470,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,11 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915EB5C-A5C5-4CCC-B160-03C6AF11F8C8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,34 +819,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -858,11 +857,11 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
@@ -871,11 +870,11 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -884,11 +883,11 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
@@ -897,11 +896,11 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
@@ -914,7 +913,7 @@
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
@@ -925,11 +924,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
         <v>53</v>
       </c>
@@ -938,11 +937,11 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -951,11 +950,11 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -966,11 +965,11 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5" t="s">
         <v>54</v>
       </c>
@@ -979,11 +978,11 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
@@ -992,11 +991,11 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
@@ -1005,11 +1004,11 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1018,11 +1017,11 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1031,11 +1030,11 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1046,11 +1045,11 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1059,11 +1058,11 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1072,11 +1071,11 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1085,11 +1084,11 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1098,11 +1097,11 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1113,11 +1112,11 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
@@ -1126,11 +1125,11 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,11 +1138,11 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>23</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1152,11 +1151,11 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1165,11 +1164,11 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>25</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1178,11 +1177,11 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1193,11 +1192,11 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
@@ -1206,11 +1205,11 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1219,11 +1218,11 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>29</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1232,11 +1231,11 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1245,11 +1244,11 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1260,11 +1259,11 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
@@ -1273,11 +1272,11 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
@@ -1286,11 +1285,11 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1299,11 +1298,11 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>35</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1312,11 +1311,11 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1327,11 +1326,11 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1340,11 +1339,11 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="5" t="s">
         <v>67</v>
       </c>
@@ -1353,11 +1352,11 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>39</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
@@ -1366,11 +1365,11 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
@@ -1379,11 +1378,11 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>41</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="5" t="s">
         <v>16</v>
       </c>
@@ -1392,11 +1391,11 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
@@ -1405,11 +1404,11 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>43</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="5" t="s">
         <v>18</v>
       </c>
@@ -1418,11 +1417,11 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1433,11 +1432,11 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>45</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="5" t="s">
         <v>21</v>
       </c>
@@ -1446,11 +1445,11 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>46</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="5" t="s">
         <v>78</v>
       </c>
@@ -1459,11 +1458,11 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>47</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="5" t="s">
         <v>79</v>
       </c>
@@ -1472,11 +1471,11 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>48</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="5" t="s">
         <v>22</v>
       </c>
@@ -1485,11 +1484,11 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>49</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
@@ -1498,11 +1497,11 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>50</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
@@ -1515,7 +1514,7 @@
       <c r="A53" s="19">
         <v>51</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
       </c>
@@ -1524,11 +1523,11 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>52</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="5" t="s">
         <v>74</v>
       </c>
@@ -1537,11 +1536,11 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>53</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="5" t="s">
         <v>75</v>
       </c>
@@ -1550,11 +1549,11 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>54</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="5" t="s">
         <v>23</v>
       </c>
@@ -1563,11 +1562,11 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>55</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="5" t="s">
         <v>80</v>
       </c>
@@ -1580,7 +1579,7 @@
       <c r="A58" s="20">
         <v>56</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="5" t="s">
         <v>81</v>
       </c>
@@ -1589,11 +1588,11 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>57</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -1604,11 +1603,11 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>58</v>
       </c>
-      <c r="B60" s="26"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="5" t="s">
         <v>16</v>
       </c>
@@ -1617,11 +1616,11 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>59</v>
       </c>
-      <c r="B61" s="26"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
@@ -1630,11 +1629,11 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>60</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -1645,11 +1644,11 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>61</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
@@ -1658,11 +1657,11 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>62</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
@@ -1671,11 +1670,11 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>63</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="5" t="s">
         <v>84</v>
       </c>
@@ -1684,11 +1683,11 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>64</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -1699,11 +1698,11 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>65</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="5" t="s">
         <v>16</v>
       </c>
@@ -1712,11 +1711,11 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>66</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
@@ -1725,11 +1724,11 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>67</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="5" t="s">
         <v>17</v>
       </c>
@@ -1738,11 +1737,11 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>68</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -1753,11 +1752,11 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>69</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="5" t="s">
         <v>34</v>
       </c>
@@ -1766,11 +1765,11 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>70</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -1781,11 +1780,11 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>71</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="5" t="s">
         <v>34</v>
       </c>
@@ -1794,11 +1793,11 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>72</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -1809,11 +1808,11 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>73</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="5" t="s">
         <v>34</v>
       </c>
@@ -1822,11 +1821,11 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>74</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -1837,11 +1836,11 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>75</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="5" t="s">
         <v>34</v>
       </c>
@@ -1850,11 +1849,11 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>76</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -1865,11 +1864,11 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>77</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="5" t="s">
         <v>34</v>
       </c>
@@ -1878,11 +1877,11 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>78</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="5" t="s">
         <v>36</v>
       </c>
@@ -1891,11 +1890,11 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>79</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -1906,11 +1905,11 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>80</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="5" t="s">
         <v>34</v>
       </c>
@@ -1923,7 +1922,7 @@
       <c r="A83" s="19">
         <v>81</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -1938,7 +1937,7 @@
       <c r="A84" s="20">
         <v>82</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="5" t="s">
         <v>36</v>
       </c>
@@ -1947,11 +1946,11 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>83</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -1964,11 +1963,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>84</v>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="5" t="s">
         <v>36</v>
       </c>
@@ -1977,11 +1976,11 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>85</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -1994,11 +1993,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>86</v>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="5" t="s">
         <v>36</v>
       </c>
@@ -2007,11 +2006,11 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>87</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -2022,11 +2021,11 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>88</v>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="5" t="s">
         <v>34</v>
       </c>
@@ -2035,7 +2034,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>89</v>
       </c>
@@ -2050,7 +2049,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>90</v>
       </c>
@@ -2063,7 +2062,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>91</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>92</v>
       </c>
@@ -2091,7 +2090,7 @@
       </c>
       <c r="E94" s="11"/>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>93</v>
       </c>
@@ -2131,29 +2130,8 @@
       <c r="E97" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E97" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="-"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:E97" xr:uid="{C0E55FD2-3E6D-4E64-946D-647C70AEE35D}"/>
   <mergeCells count="26">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B46:B58"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="B85:B86"/>
@@ -2165,6 +2143,21 @@
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B58"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
